--- a/GATEWAY/A1#111#CARDIOLINEXX/Cardioline/ECGWebApp/V.2.9.0/accreditamento-checklist_V8.2.6_Cardioline.xlsx
+++ b/GATEWAY/A1#111#CARDIOLINEXX/Cardioline/ECGWebApp/V.2.9.0/accreditamento-checklist_V8.2.6_Cardioline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cardiolinecom-my.sharepoint.com/personal/e_dellalibera_cardioline_com/Documents/FSE/FolderToUpload_BK_FULL/A1#111#CARDIOLINEXX/Cardioline/ECGWebApp/V.2.9.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{B47AD472-6D29-47A2-98E3-B20B04674961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A7D6F3-7AA5-4EFB-BB68-22B663BF45C9}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{B47AD472-6D29-47A2-98E3-B20B04674961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9C10634-8409-4CD6-B573-9E249DB3A5A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="481">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1873,18 +1873,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4a3ef5438b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Campo non gestito</t>
-  </si>
-  <si>
-    <t>A parte il campo "text", tutti gli altri parametri vengono gestiti esclusivamente tramite integrazione.</t>
-  </si>
-  <si>
-    <t>Gestita esclusivamente tramite integrazione, il parametro non viene gestito nell'applicativo</t>
-  </si>
-  <si>
-    <t>Non gestito dal software</t>
   </si>
   <si>
     <t>Errore gestito dall'integrazione, l'utente riceve messaggio di operazione non riuscita. L'operatore può riprovare l'invio</t>
@@ -2513,6 +2501,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2521,6 +2518,10 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2531,19 +2532,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3996,10 +3984,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O118" sqref="O118"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4009,7 +3997,10 @@
     <col min="3" max="3" width="20.21875" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" customWidth="1"/>
     <col min="5" max="5" width="36.21875" customWidth="1"/>
-    <col min="6" max="9" width="33.21875" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
     <col min="10" max="10" width="27.21875" customWidth="1"/>
     <col min="11" max="18" width="36.44140625" customWidth="1"/>
     <col min="19" max="19" width="27.21875" customWidth="1"/>
@@ -4041,14 +4032,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="53"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4069,14 +4060,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="60" t="s">
         <v>438</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="51"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4097,12 +4088,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="60" t="s">
         <v>439</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4124,12 +4115,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="51"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4150,8 +4141,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4496,7 +4487,7 @@
       <c r="H15" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="46" t="s">
         <v>441</v>
       </c>
       <c r="J15" s="38" t="s">
@@ -4511,7 +4502,7 @@
         <v>64</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P15" s="38" t="s">
         <v>64</v>
@@ -4522,8 +4513,8 @@
       <c r="R15" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S15" s="60" t="s">
-        <v>484</v>
+      <c r="S15" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
@@ -4816,7 +4807,7 @@
       <c r="H23" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="46" t="s">
         <v>441</v>
       </c>
       <c r="J23" s="38" t="s">
@@ -4831,7 +4822,7 @@
         <v>64</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P23" s="38" t="s">
         <v>64</v>
@@ -4842,8 +4833,8 @@
       <c r="R23" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S23" s="60" t="s">
-        <v>484</v>
+      <c r="S23" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T23" s="38"/>
       <c r="U23" s="39"/>
@@ -5155,7 +5146,7 @@
         <v>64</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P31" s="38" t="s">
         <v>64</v>
@@ -5166,8 +5157,8 @@
       <c r="R31" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S31" s="60" t="s">
-        <v>484</v>
+      <c r="S31" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
@@ -8293,7 +8284,7 @@
       </c>
     </row>
     <row r="116" spans="1:23" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="58">
+      <c r="A116" s="45">
         <v>152</v>
       </c>
       <c r="B116" s="35" t="s">
@@ -8323,9 +8314,7 @@
       <c r="J116" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K116" s="38" t="s">
-        <v>481</v>
-      </c>
+      <c r="K116" s="38"/>
       <c r="L116" s="38"/>
       <c r="M116" s="38" t="s">
         <v>64</v>
@@ -8334,7 +8323,7 @@
         <v>64</v>
       </c>
       <c r="O116" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P116" s="38" t="s">
         <v>64</v>
@@ -8345,8 +8334,8 @@
       <c r="R116" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S116" s="60" t="s">
-        <v>484</v>
+      <c r="S116" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T116" s="38"/>
       <c r="U116" s="39"/>
@@ -8356,7 +8345,7 @@
       </c>
     </row>
     <row r="117" spans="1:23" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="58">
+      <c r="A117" s="45">
         <v>154</v>
       </c>
       <c r="B117" s="35" t="s">
@@ -8386,9 +8375,7 @@
       <c r="J117" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K117" s="38" t="s">
-        <v>481</v>
-      </c>
+      <c r="K117" s="38"/>
       <c r="L117" s="38"/>
       <c r="M117" s="38" t="s">
         <v>64</v>
@@ -8397,7 +8384,7 @@
         <v>64</v>
       </c>
       <c r="O117" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P117" s="38" t="s">
         <v>64</v>
@@ -8408,8 +8395,8 @@
       <c r="R117" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S117" s="60" t="s">
-        <v>484</v>
+      <c r="S117" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T117" s="38"/>
       <c r="U117" s="39"/>
@@ -8449,9 +8436,7 @@
       <c r="J118" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K118" s="38" t="s">
-        <v>481</v>
-      </c>
+      <c r="K118" s="38"/>
       <c r="L118" s="38"/>
       <c r="M118" s="38" t="s">
         <v>64</v>
@@ -8460,7 +8445,7 @@
         <v>64</v>
       </c>
       <c r="O118" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P118" s="38" t="s">
         <v>64</v>
@@ -8471,8 +8456,8 @@
       <c r="R118" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S118" s="60" t="s">
-        <v>484</v>
+      <c r="S118" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T118" s="38"/>
       <c r="U118" s="39"/>
@@ -8482,7 +8467,7 @@
       </c>
     </row>
     <row r="119" spans="1:23" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="58">
+      <c r="A119" s="45">
         <v>156</v>
       </c>
       <c r="B119" s="35" t="s">
@@ -8512,9 +8497,7 @@
       <c r="J119" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K119" s="38" t="s">
-        <v>481</v>
-      </c>
+      <c r="K119" s="38"/>
       <c r="L119" s="38"/>
       <c r="M119" s="38" t="s">
         <v>64</v>
@@ -8523,7 +8506,7 @@
         <v>64</v>
       </c>
       <c r="O119" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P119" s="38" t="s">
         <v>64</v>
@@ -8534,8 +8517,8 @@
       <c r="R119" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S119" s="60" t="s">
-        <v>484</v>
+      <c r="S119" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T119" s="38"/>
       <c r="U119" s="39"/>
@@ -8575,9 +8558,7 @@
       <c r="J120" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K120" s="38" t="s">
-        <v>481</v>
-      </c>
+      <c r="K120" s="38"/>
       <c r="L120" s="38"/>
       <c r="M120" s="38" t="s">
         <v>64</v>
@@ -8586,7 +8567,7 @@
         <v>64</v>
       </c>
       <c r="O120" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P120" s="38" t="s">
         <v>64</v>
@@ -8597,8 +8578,8 @@
       <c r="R120" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S120" s="60" t="s">
-        <v>484</v>
+      <c r="S120" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T120" s="38"/>
       <c r="U120" s="39"/>
@@ -8638,9 +8619,7 @@
       <c r="J121" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K121" s="38" t="s">
-        <v>481</v>
-      </c>
+      <c r="K121" s="38"/>
       <c r="L121" s="38"/>
       <c r="M121" s="38" t="s">
         <v>64</v>
@@ -8649,7 +8628,7 @@
         <v>64</v>
       </c>
       <c r="O121" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P121" s="38" t="s">
         <v>64</v>
@@ -8660,8 +8639,8 @@
       <c r="R121" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S121" s="60" t="s">
-        <v>484</v>
+      <c r="S121" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T121" s="38"/>
       <c r="U121" s="39"/>
@@ -8701,9 +8680,7 @@
       <c r="J122" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K122" s="38" t="s">
-        <v>480</v>
-      </c>
+      <c r="K122" s="38"/>
       <c r="L122" s="38"/>
       <c r="M122" s="38" t="s">
         <v>64</v>
@@ -8712,7 +8689,7 @@
         <v>64</v>
       </c>
       <c r="O122" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P122" s="38" t="s">
         <v>64</v>
@@ -8723,8 +8700,8 @@
       <c r="R122" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S122" s="60" t="s">
-        <v>484</v>
+      <c r="S122" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T122" s="38"/>
       <c r="U122" s="39"/>
@@ -8749,9 +8726,7 @@
       <c r="E123" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="F123" s="37">
-        <v>45817</v>
-      </c>
+      <c r="F123" s="37"/>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
       <c r="I123" s="42"/>
@@ -8759,7 +8734,7 @@
         <v>228</v>
       </c>
       <c r="K123" s="38" t="s">
-        <v>479</v>
+        <v>233</v>
       </c>
       <c r="L123" s="38"/>
       <c r="M123" s="38" t="s">
@@ -8769,7 +8744,7 @@
         <v>64</v>
       </c>
       <c r="O123" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P123" s="38" t="s">
         <v>64</v>
@@ -8780,8 +8755,8 @@
       <c r="R123" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S123" s="60" t="s">
-        <v>484</v>
+      <c r="S123" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T123" s="38"/>
       <c r="U123" s="39"/>
@@ -8821,10 +8796,7 @@
       <c r="J124" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K124" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="L124" s="38"/>
+      <c r="K124" s="38"/>
       <c r="M124" s="38" t="s">
         <v>64</v>
       </c>
@@ -8832,7 +8804,7 @@
         <v>64</v>
       </c>
       <c r="O124" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P124" s="38" t="s">
         <v>64</v>
@@ -8843,8 +8815,8 @@
       <c r="R124" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S124" s="60" t="s">
-        <v>484</v>
+      <c r="S124" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T124" s="38"/>
       <c r="U124" s="39"/>
@@ -8869,9 +8841,7 @@
       <c r="E125" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="F125" s="37">
-        <v>45817</v>
-      </c>
+      <c r="F125" s="37"/>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
       <c r="I125" s="42"/>
@@ -8879,7 +8849,7 @@
         <v>228</v>
       </c>
       <c r="K125" s="38" t="s">
-        <v>482</v>
+        <v>233</v>
       </c>
       <c r="L125" s="38"/>
       <c r="M125" s="38" t="s">
@@ -8889,7 +8859,7 @@
         <v>64</v>
       </c>
       <c r="O125" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P125" s="38" t="s">
         <v>64</v>
@@ -8900,8 +8870,8 @@
       <c r="R125" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S125" s="60" t="s">
-        <v>484</v>
+      <c r="S125" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T125" s="38"/>
       <c r="U125" s="39"/>
@@ -8926,9 +8896,7 @@
       <c r="E126" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="F126" s="37">
-        <v>45817</v>
-      </c>
+      <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
       <c r="I126" s="42"/>
@@ -8936,7 +8904,7 @@
         <v>228</v>
       </c>
       <c r="K126" s="38" t="s">
-        <v>482</v>
+        <v>233</v>
       </c>
       <c r="L126" s="38"/>
       <c r="M126" s="38" t="s">
@@ -8946,7 +8914,7 @@
         <v>64</v>
       </c>
       <c r="O126" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P126" s="38" t="s">
         <v>64</v>
@@ -8957,8 +8925,8 @@
       <c r="R126" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S126" s="60" t="s">
-        <v>484</v>
+      <c r="S126" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T126" s="38"/>
       <c r="U126" s="39"/>
@@ -8983,9 +8951,7 @@
       <c r="E127" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="F127" s="37">
-        <v>45817</v>
-      </c>
+      <c r="F127" s="37"/>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="42"/>
@@ -8993,7 +8959,7 @@
         <v>228</v>
       </c>
       <c r="K127" s="38" t="s">
-        <v>482</v>
+        <v>233</v>
       </c>
       <c r="L127" s="38"/>
       <c r="M127" s="38" t="s">
@@ -9003,7 +8969,7 @@
         <v>64</v>
       </c>
       <c r="O127" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P127" s="38" t="s">
         <v>64</v>
@@ -9014,8 +8980,8 @@
       <c r="R127" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S127" s="60" t="s">
-        <v>484</v>
+      <c r="S127" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T127" s="38"/>
       <c r="U127" s="39"/>
@@ -9040,9 +9006,7 @@
       <c r="E128" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="F128" s="37">
-        <v>45817</v>
-      </c>
+      <c r="F128" s="37"/>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
       <c r="I128" s="42"/>
@@ -9050,7 +9014,7 @@
         <v>228</v>
       </c>
       <c r="K128" s="38" t="s">
-        <v>482</v>
+        <v>233</v>
       </c>
       <c r="L128" s="38"/>
       <c r="M128" s="38" t="s">
@@ -9060,7 +9024,7 @@
         <v>64</v>
       </c>
       <c r="O128" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P128" s="38" t="s">
         <v>64</v>
@@ -9071,8 +9035,8 @@
       <c r="R128" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S128" s="60" t="s">
-        <v>484</v>
+      <c r="S128" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T128" s="38"/>
       <c r="U128" s="39"/>
@@ -9097,9 +9061,7 @@
       <c r="E129" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="F129" s="37">
-        <v>45817</v>
-      </c>
+      <c r="F129" s="37"/>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
       <c r="I129" s="42"/>
@@ -9107,7 +9069,7 @@
         <v>228</v>
       </c>
       <c r="K129" s="38" t="s">
-        <v>482</v>
+        <v>233</v>
       </c>
       <c r="L129" s="38"/>
       <c r="M129" s="38" t="s">
@@ -9117,7 +9079,7 @@
         <v>64</v>
       </c>
       <c r="O129" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P129" s="38" t="s">
         <v>64</v>
@@ -9128,8 +9090,8 @@
       <c r="R129" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S129" s="60" t="s">
-        <v>484</v>
+      <c r="S129" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T129" s="38"/>
       <c r="U129" s="39"/>
@@ -9169,9 +9131,7 @@
       <c r="J130" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K130" s="38" t="s">
-        <v>481</v>
-      </c>
+      <c r="K130" s="38"/>
       <c r="L130" s="38"/>
       <c r="M130" s="38" t="s">
         <v>64</v>
@@ -9180,7 +9140,7 @@
         <v>64</v>
       </c>
       <c r="O130" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P130" s="38" t="s">
         <v>64</v>
@@ -9191,8 +9151,8 @@
       <c r="R130" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S130" s="60" t="s">
-        <v>484</v>
+      <c r="S130" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T130" s="38"/>
       <c r="U130" s="39"/>
@@ -10497,7 +10457,7 @@
       </c>
     </row>
     <row r="166" spans="1:23" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="58">
+      <c r="A166" s="45">
         <v>448</v>
       </c>
       <c r="B166" s="35" t="s">
@@ -10535,7 +10495,7 @@
       <c r="P166" s="38"/>
       <c r="Q166" s="38"/>
       <c r="R166" s="38"/>
-      <c r="S166" s="60"/>
+      <c r="S166" s="47"/>
       <c r="T166" s="38"/>
       <c r="U166" s="39"/>
       <c r="V166" s="40"/>
@@ -10559,9 +10519,7 @@
       <c r="E167" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="F167" s="37">
-        <v>45817</v>
-      </c>
+      <c r="F167" s="37"/>
       <c r="G167" s="37"/>
       <c r="H167" s="37"/>
       <c r="I167" s="42"/>
@@ -10569,7 +10527,7 @@
         <v>228</v>
       </c>
       <c r="K167" s="38" t="s">
-        <v>482</v>
+        <v>233</v>
       </c>
       <c r="L167" s="38"/>
       <c r="M167" s="38" t="s">
@@ -10579,7 +10537,7 @@
         <v>64</v>
       </c>
       <c r="O167" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P167" s="38" t="s">
         <v>64</v>
@@ -10590,8 +10548,8 @@
       <c r="R167" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S167" s="60" t="s">
-        <v>484</v>
+      <c r="S167" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T167" s="38"/>
       <c r="U167" s="39"/>
@@ -10986,9 +10944,7 @@
       <c r="E178" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="F178" s="37">
-        <v>45817</v>
-      </c>
+      <c r="F178" s="37"/>
       <c r="G178" s="37"/>
       <c r="H178" s="37"/>
       <c r="I178" s="42"/>
@@ -10996,7 +10952,7 @@
         <v>228</v>
       </c>
       <c r="K178" s="38" t="s">
-        <v>482</v>
+        <v>233</v>
       </c>
       <c r="L178" s="35"/>
       <c r="M178" s="38" t="s">
@@ -11006,7 +10962,7 @@
         <v>64</v>
       </c>
       <c r="O178" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P178" s="38" t="s">
         <v>64</v>
@@ -11017,8 +10973,8 @@
       <c r="R178" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S178" s="60" t="s">
-        <v>484</v>
+      <c r="S178" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T178" s="38"/>
       <c r="U178" s="35"/>
@@ -11265,9 +11221,7 @@
       <c r="E185" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="F185" s="37">
-        <v>45817</v>
-      </c>
+      <c r="F185" s="37"/>
       <c r="G185" s="37"/>
       <c r="H185" s="37"/>
       <c r="I185" s="42"/>
@@ -11275,7 +11229,7 @@
         <v>228</v>
       </c>
       <c r="K185" s="38" t="s">
-        <v>482</v>
+        <v>233</v>
       </c>
       <c r="L185" s="35"/>
       <c r="M185" s="38" t="s">
@@ -11285,7 +11239,7 @@
         <v>64</v>
       </c>
       <c r="O185" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P185" s="38" t="s">
         <v>64</v>
@@ -11296,8 +11250,8 @@
       <c r="R185" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S185" s="60" t="s">
-        <v>484</v>
+      <c r="S185" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T185" s="38"/>
       <c r="U185" s="35"/>
@@ -11559,9 +11513,7 @@
       <c r="J192" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K192" s="38" t="s">
-        <v>481</v>
-      </c>
+      <c r="K192" s="38"/>
       <c r="L192" s="38"/>
       <c r="M192" s="38" t="s">
         <v>64</v>
@@ -11570,7 +11522,7 @@
         <v>64</v>
       </c>
       <c r="O192" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P192" s="38" t="s">
         <v>64</v>
@@ -11581,8 +11533,8 @@
       <c r="R192" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S192" s="60" t="s">
-        <v>484</v>
+      <c r="S192" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="T192" s="38"/>
       <c r="U192" s="39"/>
@@ -15647,7 +15599,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K115 K131:K166 K168:K177 K179:K184 K186:K191</xm:sqref>
+          <xm:sqref>K10:K191</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17898,6 +17850,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18155,28 +18128,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18195,31 +18172,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#CARDIOLINEXX/Cardioline/ECGWebApp/V.2.9.0/accreditamento-checklist_V8.2.6_Cardioline.xlsx
+++ b/GATEWAY/A1#111#CARDIOLINEXX/Cardioline/ECGWebApp/V.2.9.0/accreditamento-checklist_V8.2.6_Cardioline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cardiolinecom-my.sharepoint.com/personal/e_dellalibera_cardioline_com/Documents/FSE/FolderToUpload_BK_FULL/A1#111#CARDIOLINEXX/Cardioline/ECGWebApp/V.2.9.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{B47AD472-6D29-47A2-98E3-B20B04674961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9C10634-8409-4CD6-B573-9E249DB3A5A0}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{B47AD472-6D29-47A2-98E3-B20B04674961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA29044D-397F-435F-8F81-D73C1BE2B958}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="2040" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="482">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1764,12 +1764,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>2025-06-09T16:01:41Z</t>
-  </si>
-  <si>
-    <t>2025-06-09T16:05:18Z</t>
-  </si>
-  <si>
     <t>2025-06-09T16:10:22Z</t>
   </si>
   <si>
@@ -1800,18 +1794,9 @@
     <t>2025-06-09T15:51:16Z</t>
   </si>
   <si>
-    <t>2025-06-09T15:10:47Z</t>
-  </si>
-  <si>
     <t>2025-06-10T12:16:51Z</t>
   </si>
   <si>
-    <t>5cae16474a470738aded2e7fce431ae7</t>
-  </si>
-  <si>
-    <t>43e72c0f8385323baab8fdaee96ee394</t>
-  </si>
-  <si>
     <t>7f742b841b727404588fd13c344ca8e5</t>
   </si>
   <si>
@@ -1869,9 +1854,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.67e83acabb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.fb7f600547^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4a3ef5438b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -1879,6 +1861,27 @@
   </si>
   <si>
     <t>L'errore viene gestito in maniera trasparente all’operatore, con la notifica di un messaggio di errore. In caso di retry del fallimento, l'errore viene gestito dall’operatore effettuando un nuovo tentativo di invio.</t>
+  </si>
+  <si>
+    <t>2025-06-19T14:14:35Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.42541ecf92fa189f1246ca2fc3cf95a45f5c10a838f16964b99eb5f9d3499fed.2dedd7eb4f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>904d54ef648acac14c9a539989126a97</t>
+  </si>
+  <si>
+    <t>2025-06-19T15:05:29Z</t>
+  </si>
+  <si>
+    <t>UNKNOWN_TRACEID</t>
+  </si>
+  <si>
+    <t>1506d5ce9d6806ed23261a4da301fec8</t>
+  </si>
+  <si>
+    <t>2025-06-19T15:10:30Z</t>
   </si>
 </sst>
 </file>
@@ -3984,10 +3987,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:I1048576"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3995,10 +3998,10 @@
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="46.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="5" max="5" width="36.21875" customWidth="1"/>
     <col min="6" max="6" width="33.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="12.77734375" customWidth="1"/>
     <col min="10" max="10" width="27.21875" customWidth="1"/>
@@ -4479,13 +4482,13 @@
         <v>43</v>
       </c>
       <c r="F15" s="37">
-        <v>45817</v>
+        <v>45827</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>456</v>
+        <v>478</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>479</v>
       </c>
       <c r="I15" s="46" t="s">
         <v>441</v>
@@ -4502,7 +4505,7 @@
         <v>64</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P15" s="38" t="s">
         <v>64</v>
@@ -4514,7 +4517,7 @@
         <v>64</v>
       </c>
       <c r="S15" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
@@ -4799,13 +4802,13 @@
         <v>55</v>
       </c>
       <c r="F23" s="37">
-        <v>45817</v>
+        <v>45827</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>457</v>
+        <v>481</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>480</v>
       </c>
       <c r="I23" s="46" t="s">
         <v>441</v>
@@ -4822,7 +4825,7 @@
         <v>64</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P23" s="38" t="s">
         <v>64</v>
@@ -4834,7 +4837,7 @@
         <v>64</v>
       </c>
       <c r="S23" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T23" s="38"/>
       <c r="U23" s="39"/>
@@ -5130,7 +5133,7 @@
         <v>45817</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H31" s="37"/>
       <c r="I31" s="42"/>
@@ -5146,7 +5149,7 @@
         <v>64</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P31" s="38" t="s">
         <v>64</v>
@@ -5158,7 +5161,7 @@
         <v>64</v>
       </c>
       <c r="S31" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
@@ -8303,13 +8306,13 @@
         <v>45817</v>
       </c>
       <c r="G116" s="37" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H116" s="37" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="I116" s="42" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="J116" s="38" t="s">
         <v>64</v>
@@ -8323,7 +8326,7 @@
         <v>64</v>
       </c>
       <c r="O116" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P116" s="38" t="s">
         <v>64</v>
@@ -8335,7 +8338,7 @@
         <v>64</v>
       </c>
       <c r="S116" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T116" s="38"/>
       <c r="U116" s="39"/>
@@ -8364,13 +8367,13 @@
         <v>45817</v>
       </c>
       <c r="G117" s="37" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I117" s="42" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J117" s="38" t="s">
         <v>64</v>
@@ -8384,7 +8387,7 @@
         <v>64</v>
       </c>
       <c r="O117" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P117" s="38" t="s">
         <v>64</v>
@@ -8396,7 +8399,7 @@
         <v>64</v>
       </c>
       <c r="S117" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T117" s="38"/>
       <c r="U117" s="39"/>
@@ -8425,13 +8428,13 @@
         <v>45817</v>
       </c>
       <c r="G118" s="37" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H118" s="37" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J118" s="38" t="s">
         <v>64</v>
@@ -8445,7 +8448,7 @@
         <v>64</v>
       </c>
       <c r="O118" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P118" s="38" t="s">
         <v>64</v>
@@ -8457,7 +8460,7 @@
         <v>64</v>
       </c>
       <c r="S118" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T118" s="38"/>
       <c r="U118" s="39"/>
@@ -8486,13 +8489,13 @@
         <v>45817</v>
       </c>
       <c r="G119" s="37" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="J119" s="38" t="s">
         <v>64</v>
@@ -8506,7 +8509,7 @@
         <v>64</v>
       </c>
       <c r="O119" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P119" s="38" t="s">
         <v>64</v>
@@ -8518,7 +8521,7 @@
         <v>64</v>
       </c>
       <c r="S119" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T119" s="38"/>
       <c r="U119" s="39"/>
@@ -8547,13 +8550,13 @@
         <v>45817</v>
       </c>
       <c r="G120" s="37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="J120" s="38" t="s">
         <v>64</v>
@@ -8567,7 +8570,7 @@
         <v>64</v>
       </c>
       <c r="O120" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P120" s="38" t="s">
         <v>64</v>
@@ -8579,7 +8582,7 @@
         <v>64</v>
       </c>
       <c r="S120" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T120" s="38"/>
       <c r="U120" s="39"/>
@@ -8608,13 +8611,13 @@
         <v>45817</v>
       </c>
       <c r="G121" s="37" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H121" s="37" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I121" s="42" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="J121" s="38" t="s">
         <v>64</v>
@@ -8628,7 +8631,7 @@
         <v>64</v>
       </c>
       <c r="O121" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P121" s="38" t="s">
         <v>64</v>
@@ -8640,7 +8643,7 @@
         <v>64</v>
       </c>
       <c r="S121" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T121" s="38"/>
       <c r="U121" s="39"/>
@@ -8669,13 +8672,13 @@
         <v>45817</v>
       </c>
       <c r="G122" s="37" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I122" s="42" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J122" s="38" t="s">
         <v>64</v>
@@ -8689,7 +8692,7 @@
         <v>64</v>
       </c>
       <c r="O122" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P122" s="38" t="s">
         <v>64</v>
@@ -8701,7 +8704,7 @@
         <v>64</v>
       </c>
       <c r="S122" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T122" s="38"/>
       <c r="U122" s="39"/>
@@ -8744,7 +8747,7 @@
         <v>64</v>
       </c>
       <c r="O123" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P123" s="38" t="s">
         <v>64</v>
@@ -8756,7 +8759,7 @@
         <v>64</v>
       </c>
       <c r="S123" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T123" s="38"/>
       <c r="U123" s="39"/>
@@ -8785,13 +8788,13 @@
         <v>45817</v>
       </c>
       <c r="G124" s="37" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H124" s="37" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="J124" s="38" t="s">
         <v>64</v>
@@ -8804,7 +8807,7 @@
         <v>64</v>
       </c>
       <c r="O124" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P124" s="38" t="s">
         <v>64</v>
@@ -8816,7 +8819,7 @@
         <v>64</v>
       </c>
       <c r="S124" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T124" s="38"/>
       <c r="U124" s="39"/>
@@ -8859,7 +8862,7 @@
         <v>64</v>
       </c>
       <c r="O125" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P125" s="38" t="s">
         <v>64</v>
@@ -8871,7 +8874,7 @@
         <v>64</v>
       </c>
       <c r="S125" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T125" s="38"/>
       <c r="U125" s="39"/>
@@ -8914,7 +8917,7 @@
         <v>64</v>
       </c>
       <c r="O126" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P126" s="38" t="s">
         <v>64</v>
@@ -8926,7 +8929,7 @@
         <v>64</v>
       </c>
       <c r="S126" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T126" s="38"/>
       <c r="U126" s="39"/>
@@ -8969,7 +8972,7 @@
         <v>64</v>
       </c>
       <c r="O127" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P127" s="38" t="s">
         <v>64</v>
@@ -8981,7 +8984,7 @@
         <v>64</v>
       </c>
       <c r="S127" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T127" s="38"/>
       <c r="U127" s="39"/>
@@ -9024,7 +9027,7 @@
         <v>64</v>
       </c>
       <c r="O128" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P128" s="38" t="s">
         <v>64</v>
@@ -9036,7 +9039,7 @@
         <v>64</v>
       </c>
       <c r="S128" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T128" s="38"/>
       <c r="U128" s="39"/>
@@ -9079,7 +9082,7 @@
         <v>64</v>
       </c>
       <c r="O129" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P129" s="38" t="s">
         <v>64</v>
@@ -9091,7 +9094,7 @@
         <v>64</v>
       </c>
       <c r="S129" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T129" s="38"/>
       <c r="U129" s="39"/>
@@ -9120,13 +9123,13 @@
         <v>45817</v>
       </c>
       <c r="G130" s="37" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H130" s="37" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I130" s="42" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J130" s="38" t="s">
         <v>64</v>
@@ -9140,7 +9143,7 @@
         <v>64</v>
       </c>
       <c r="O130" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P130" s="38" t="s">
         <v>64</v>
@@ -9152,7 +9155,7 @@
         <v>64</v>
       </c>
       <c r="S130" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T130" s="38"/>
       <c r="U130" s="39"/>
@@ -10473,16 +10476,16 @@
         <v>389</v>
       </c>
       <c r="F166" s="37">
-        <v>45817</v>
+        <v>45827</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="I166" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J166" s="38" t="s">
         <v>64</v>
@@ -10537,7 +10540,7 @@
         <v>64</v>
       </c>
       <c r="O167" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P167" s="38" t="s">
         <v>64</v>
@@ -10549,7 +10552,7 @@
         <v>64</v>
       </c>
       <c r="S167" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T167" s="38"/>
       <c r="U167" s="39"/>
@@ -10962,7 +10965,7 @@
         <v>64</v>
       </c>
       <c r="O178" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P178" s="38" t="s">
         <v>64</v>
@@ -10974,7 +10977,7 @@
         <v>64</v>
       </c>
       <c r="S178" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T178" s="38"/>
       <c r="U178" s="35"/>
@@ -11239,7 +11242,7 @@
         <v>64</v>
       </c>
       <c r="O185" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P185" s="38" t="s">
         <v>64</v>
@@ -11251,7 +11254,7 @@
         <v>64</v>
       </c>
       <c r="S185" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T185" s="38"/>
       <c r="U185" s="35"/>
@@ -11502,13 +11505,13 @@
         <v>45818</v>
       </c>
       <c r="G192" s="37" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H192" s="37" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I192" s="42" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="J192" s="38" t="s">
         <v>64</v>
@@ -11522,7 +11525,7 @@
         <v>64</v>
       </c>
       <c r="O192" s="38" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P192" s="38" t="s">
         <v>64</v>
@@ -11534,7 +11537,7 @@
         <v>64</v>
       </c>
       <c r="S192" s="47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="T192" s="38"/>
       <c r="U192" s="39"/>
@@ -15578,11 +15581,11 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F5F4AC7B-142E-4F14-AD0B-95E75DB6B433}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
@@ -15667,7 +15670,7 @@
   <dimension ref="A1:G960"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -17850,6 +17853,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -17859,15 +17871,6 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18129,6 +18132,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18141,14 +18152,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#CARDIOLINEXX/Cardioline/ECGWebApp/V.2.9.0/accreditamento-checklist_V8.2.6_Cardioline.xlsx
+++ b/GATEWAY/A1#111#CARDIOLINEXX/Cardioline/ECGWebApp/V.2.9.0/accreditamento-checklist_V8.2.6_Cardioline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cardiolinecom-my.sharepoint.com/personal/e_dellalibera_cardioline_com/Documents/FSE/FolderToUpload_BK_FULL/A1#111#CARDIOLINEXX/Cardioline/ECGWebApp/V.2.9.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{B47AD472-6D29-47A2-98E3-B20B04674961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA29044D-397F-435F-8F81-D73C1BE2B958}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{B47AD472-6D29-47A2-98E3-B20B04674961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E76D2DE-B73E-4827-94EE-CC0410E04E92}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="2040" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20445" yWindow="4725" windowWidth="17280" windowHeight="9960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1872,16 +1872,16 @@
     <t>904d54ef648acac14c9a539989126a97</t>
   </si>
   <si>
-    <t>2025-06-19T15:05:29Z</t>
-  </si>
-  <si>
-    <t>UNKNOWN_TRACEID</t>
-  </si>
-  <si>
-    <t>1506d5ce9d6806ed23261a4da301fec8</t>
-  </si>
-  <si>
-    <t>2025-06-19T15:10:30Z</t>
+    <t>c8faf9ad23c9ae6cef96aec37e61f7ae</t>
+  </si>
+  <si>
+    <t>2025-06-24T13:13:40Z</t>
+  </si>
+  <si>
+    <t>f43041690de67a2e23e1b8ae64d10154</t>
+  </si>
+  <si>
+    <t>2025-06-24T13:16:41Z</t>
   </si>
 </sst>
 </file>
@@ -3987,7 +3987,7 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
@@ -4482,13 +4482,13 @@
         <v>43</v>
       </c>
       <c r="F15" s="37">
-        <v>45827</v>
+        <v>45832</v>
       </c>
       <c r="G15" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="H15" s="46" t="s">
         <v>478</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>479</v>
       </c>
       <c r="I15" s="46" t="s">
         <v>441</v>
@@ -4802,7 +4802,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="37">
-        <v>45827</v>
+        <v>45832</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>481</v>
